--- a/Code/Results/Cases/Case_2_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9969734515877917</v>
+        <v>1.040570452553882</v>
       </c>
       <c r="D2">
-        <v>1.015518134286894</v>
+        <v>1.040959909991495</v>
       </c>
       <c r="E2">
-        <v>1.013649061850601</v>
+        <v>1.056001669731556</v>
       </c>
       <c r="F2">
-        <v>1.020250376205735</v>
+        <v>1.062710247375454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045311271409232</v>
+        <v>1.038062391104093</v>
       </c>
       <c r="J2">
-        <v>1.019245064573588</v>
+        <v>1.045656343949804</v>
       </c>
       <c r="K2">
-        <v>1.026765428665094</v>
+        <v>1.043740779275838</v>
       </c>
       <c r="L2">
-        <v>1.024921462983136</v>
+        <v>1.058740578936548</v>
       </c>
       <c r="M2">
-        <v>1.031434619743758</v>
+        <v>1.065430857243638</v>
       </c>
       <c r="N2">
-        <v>1.020692509474326</v>
+        <v>1.047141295896671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005025535240288</v>
+        <v>1.042117031338104</v>
       </c>
       <c r="D3">
-        <v>1.021477818032051</v>
+        <v>1.042099111701669</v>
       </c>
       <c r="E3">
-        <v>1.02023705513422</v>
+        <v>1.057370786840091</v>
       </c>
       <c r="F3">
-        <v>1.027364419377908</v>
+        <v>1.064174928091394</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048030508631931</v>
+        <v>1.038466944016177</v>
       </c>
       <c r="J3">
-        <v>1.025380130381564</v>
+        <v>1.04684561660383</v>
       </c>
       <c r="K3">
-        <v>1.031843068100505</v>
+        <v>1.044689647409496</v>
       </c>
       <c r="L3">
-        <v>1.030617384903553</v>
+        <v>1.059921833833354</v>
       </c>
       <c r="M3">
-        <v>1.03765874190281</v>
+        <v>1.066708774600758</v>
       </c>
       <c r="N3">
-        <v>1.026836287779451</v>
+        <v>1.048332257454279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010065965539749</v>
+        <v>1.043115717716358</v>
       </c>
       <c r="D4">
-        <v>1.025210279556375</v>
+        <v>1.042834287243415</v>
       </c>
       <c r="E4">
-        <v>1.024378819908572</v>
+        <v>1.058255879167218</v>
       </c>
       <c r="F4">
-        <v>1.031833818598501</v>
+        <v>1.065121683539132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049717462148744</v>
+        <v>1.038726210118243</v>
       </c>
       <c r="J4">
-        <v>1.02921564129638</v>
+        <v>1.047612750836656</v>
       </c>
       <c r="K4">
-        <v>1.035013669808803</v>
+        <v>1.045301090708961</v>
       </c>
       <c r="L4">
-        <v>1.034191655026578</v>
+        <v>1.06068483399401</v>
       </c>
       <c r="M4">
-        <v>1.041562638720981</v>
+        <v>1.067534166658393</v>
       </c>
       <c r="N4">
-        <v>1.030677245559705</v>
+        <v>1.049100481105706</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012146743677265</v>
+        <v>1.043535083063784</v>
       </c>
       <c r="D5">
-        <v>1.026751405610846</v>
+        <v>1.043142890572905</v>
       </c>
       <c r="E5">
-        <v>1.02609267947398</v>
+        <v>1.058627782356977</v>
       </c>
       <c r="F5">
-        <v>1.033682553785511</v>
+        <v>1.065519469189068</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050410126529167</v>
+        <v>1.038834608138218</v>
       </c>
       <c r="J5">
-        <v>1.030797749060234</v>
+        <v>1.047934685234723</v>
       </c>
       <c r="K5">
-        <v>1.036320556134299</v>
+        <v>1.04555753931478</v>
       </c>
       <c r="L5">
-        <v>1.035669097711789</v>
+        <v>1.061005281612355</v>
       </c>
       <c r="M5">
-        <v>1.043175921982885</v>
+        <v>1.067880807249906</v>
       </c>
       <c r="N5">
-        <v>1.032261600098054</v>
+        <v>1.049422872687545</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012493940929218</v>
+        <v>1.043605468328795</v>
       </c>
       <c r="D6">
-        <v>1.027008570713244</v>
+        <v>1.043194679359421</v>
       </c>
       <c r="E6">
-        <v>1.026378886378472</v>
+        <v>1.058690215598955</v>
       </c>
       <c r="F6">
-        <v>1.033991244306955</v>
+        <v>1.065586245842094</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050525481671538</v>
+        <v>1.038852773684712</v>
       </c>
       <c r="J6">
-        <v>1.031061662229289</v>
+        <v>1.047988706278321</v>
       </c>
       <c r="K6">
-        <v>1.036538502239745</v>
+        <v>1.045600563009539</v>
       </c>
       <c r="L6">
-        <v>1.035915730959746</v>
+        <v>1.061059067716068</v>
       </c>
       <c r="M6">
-        <v>1.043445207896623</v>
+        <v>1.067938989140393</v>
       </c>
       <c r="N6">
-        <v>1.03252588805408</v>
+        <v>1.049476970447221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010093916121394</v>
+        <v>1.043121323180831</v>
       </c>
       <c r="D7">
-        <v>1.025230980109872</v>
+        <v>1.042838412634184</v>
       </c>
       <c r="E7">
-        <v>1.024401825922387</v>
+        <v>1.058260849293259</v>
       </c>
       <c r="F7">
-        <v>1.031858637832675</v>
+        <v>1.065126999667026</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049726781459506</v>
+        <v>1.038727660882213</v>
       </c>
       <c r="J7">
-        <v>1.029236898448496</v>
+        <v>1.047617054766536</v>
       </c>
       <c r="K7">
-        <v>1.0350312329159</v>
+        <v>1.045304519747217</v>
       </c>
       <c r="L7">
-        <v>1.034211493765371</v>
+        <v>1.060689117071843</v>
       </c>
       <c r="M7">
-        <v>1.041584303093551</v>
+        <v>1.067538799871059</v>
       </c>
       <c r="N7">
-        <v>1.030698532899415</v>
+        <v>1.04910479114766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9997313888231572</v>
+        <v>1.041093556849484</v>
       </c>
       <c r="D8">
-        <v>1.017558923487886</v>
+        <v>1.041345318707092</v>
       </c>
       <c r="E8">
-        <v>1.015901624437764</v>
+        <v>1.056464542384117</v>
       </c>
       <c r="F8">
-        <v>1.022683482326396</v>
+        <v>1.063205452414565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046245810344163</v>
+        <v>1.038199632286383</v>
       </c>
       <c r="J8">
-        <v>1.021347385789635</v>
+        <v>1.046058766262127</v>
       </c>
       <c r="K8">
-        <v>1.028506186997319</v>
+        <v>1.044061982445336</v>
       </c>
       <c r="L8">
-        <v>1.026870421491314</v>
+        <v>1.059140072694251</v>
       </c>
       <c r="M8">
-        <v>1.033564713593246</v>
+        <v>1.065863051008214</v>
       </c>
       <c r="N8">
-        <v>1.022797816227639</v>
+        <v>1.047544289694837</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9800480039698134</v>
+        <v>1.037504231644502</v>
       </c>
       <c r="D9">
-        <v>1.003008248842816</v>
+        <v>1.038698994084504</v>
       </c>
       <c r="E9">
-        <v>0.9999127626335506</v>
+        <v>1.05329267628124</v>
       </c>
       <c r="F9">
-        <v>1.005397841168975</v>
+        <v>1.059811541579408</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039513601683324</v>
+        <v>1.037249860200995</v>
       </c>
       <c r="J9">
-        <v>1.006325540358318</v>
+        <v>1.043294136821569</v>
       </c>
       <c r="K9">
-        <v>1.016052707131363</v>
+        <v>1.041852792461077</v>
       </c>
       <c r="L9">
-        <v>1.013007255361687</v>
+        <v>1.056399856165995</v>
       </c>
       <c r="M9">
-        <v>1.018403945048017</v>
+        <v>1.06289835068059</v>
       </c>
       <c r="N9">
-        <v>1.00775463805278</v>
+        <v>1.044775734163366</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9657720291748706</v>
+        <v>1.035099913121047</v>
       </c>
       <c r="D10">
-        <v>0.9924818180724777</v>
+        <v>1.036924123377699</v>
       </c>
       <c r="E10">
-        <v>0.9884425319513989</v>
+        <v>1.051173306978277</v>
       </c>
       <c r="F10">
-        <v>0.9929751414160042</v>
+        <v>1.057543187739036</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034555407105604</v>
+        <v>1.036603520484476</v>
       </c>
       <c r="J10">
-        <v>0.9954127024774622</v>
+        <v>1.041438025448738</v>
       </c>
       <c r="K10">
-        <v>1.006988155483837</v>
+        <v>1.040366423414233</v>
       </c>
       <c r="L10">
-        <v>1.003023643289937</v>
+        <v>1.05456555489886</v>
       </c>
       <c r="M10">
-        <v>1.007472400897208</v>
+        <v>1.060913540547063</v>
       </c>
       <c r="N10">
-        <v>0.9968263026904129</v>
+        <v>1.042916986899486</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9592637552423987</v>
+        <v>1.034055974077649</v>
       </c>
       <c r="D11">
-        <v>0.9876923941618165</v>
+        <v>1.036152975365341</v>
       </c>
       <c r="E11">
-        <v>0.9832484357689641</v>
+        <v>1.05025437219498</v>
       </c>
       <c r="F11">
-        <v>0.9873434810424095</v>
+        <v>1.05655950476916</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032278811940153</v>
+        <v>1.036320488872043</v>
       </c>
       <c r="J11">
-        <v>0.9904352043608274</v>
+        <v>1.040631121765205</v>
       </c>
       <c r="K11">
-        <v>1.002850207170756</v>
+        <v>1.039719511908168</v>
       </c>
       <c r="L11">
-        <v>0.9984933307770151</v>
+        <v>1.053769424518002</v>
       </c>
       <c r="M11">
-        <v>1.002508094018824</v>
+        <v>1.060052027577553</v>
       </c>
       <c r="N11">
-        <v>0.9918417359555254</v>
+        <v>1.042108937320169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9567918561067906</v>
+        <v>1.033667768644641</v>
       </c>
       <c r="D12">
-        <v>0.9858750548279668</v>
+        <v>1.035866136239592</v>
       </c>
       <c r="E12">
-        <v>0.9812814486768789</v>
+        <v>1.049912845874483</v>
       </c>
       <c r="F12">
-        <v>0.9852097508016964</v>
+        <v>1.056193891645151</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031411876190278</v>
+        <v>1.036214879845974</v>
       </c>
       <c r="J12">
-        <v>0.9885445164667584</v>
+        <v>1.040330913254938</v>
       </c>
       <c r="K12">
-        <v>1.001277963701924</v>
+        <v>1.039478717031947</v>
       </c>
       <c r="L12">
-        <v>0.9967762732326296</v>
+        <v>1.053473418864202</v>
       </c>
       <c r="M12">
-        <v>1.000625902276913</v>
+        <v>1.059731703456609</v>
       </c>
       <c r="N12">
-        <v>0.989948363067782</v>
+        <v>1.041808302479384</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9573246453248195</v>
+        <v>1.033751060121185</v>
       </c>
       <c r="D13">
-        <v>0.9862666781518306</v>
+        <v>1.035927682441935</v>
       </c>
       <c r="E13">
-        <v>0.9817051405029356</v>
+        <v>1.04998611328788</v>
       </c>
       <c r="F13">
-        <v>0.9856694079797962</v>
+        <v>1.056272327422642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031598833371178</v>
+        <v>1.036237555047764</v>
       </c>
       <c r="J13">
-        <v>0.9889520378516432</v>
+        <v>1.0403953312451</v>
       </c>
       <c r="K13">
-        <v>1.001616866570454</v>
+        <v>1.039530391227731</v>
       </c>
       <c r="L13">
-        <v>0.9971461955310911</v>
+        <v>1.053536926200437</v>
       </c>
       <c r="M13">
-        <v>1.001031431241795</v>
+        <v>1.059800428667322</v>
       </c>
       <c r="N13">
-        <v>0.9903564631797769</v>
+        <v>1.04187281195048</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9590605717097235</v>
+        <v>1.034023893936994</v>
       </c>
       <c r="D14">
-        <v>0.987542976874603</v>
+        <v>1.036129273364063</v>
       </c>
       <c r="E14">
-        <v>0.983086634504082</v>
+        <v>1.050226145504931</v>
       </c>
       <c r="F14">
-        <v>0.9871679854366048</v>
+        <v>1.05652928780484</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032207596956677</v>
+        <v>1.036311768977662</v>
       </c>
       <c r="J14">
-        <v>0.9902797976104845</v>
+        <v>1.040606316451987</v>
       </c>
       <c r="K14">
-        <v>1.002720984065987</v>
+        <v>1.039699618031848</v>
       </c>
       <c r="L14">
-        <v>0.9983521177697294</v>
+        <v>1.053744962501899</v>
       </c>
       <c r="M14">
-        <v>1.00235331362547</v>
+        <v>1.06002555605582</v>
       </c>
       <c r="N14">
-        <v>0.9916861085097716</v>
+        <v>1.042084096780562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9601227456138578</v>
+        <v>1.034191937212061</v>
       </c>
       <c r="D15">
-        <v>0.988324151192097</v>
+        <v>1.036253426908501</v>
       </c>
       <c r="E15">
-        <v>0.9839327136857468</v>
+        <v>1.050374011468188</v>
       </c>
       <c r="F15">
-        <v>0.9880856312057834</v>
+        <v>1.056687578914449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032579793632219</v>
+        <v>1.036357431123502</v>
       </c>
       <c r="J15">
-        <v>0.9910922042316554</v>
+        <v>1.040736246407102</v>
       </c>
       <c r="K15">
-        <v>1.003396494582658</v>
+        <v>1.039803817376685</v>
       </c>
       <c r="L15">
-        <v>0.9990904795346749</v>
+        <v>1.053873102240034</v>
       </c>
       <c r="M15">
-        <v>1.003162588744994</v>
+        <v>1.060164221853325</v>
       </c>
       <c r="N15">
-        <v>0.9924996688415293</v>
+        <v>1.042214211251116</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9661966402109594</v>
+        <v>1.03516913483838</v>
       </c>
       <c r="D16">
-        <v>0.9927945082046442</v>
+        <v>1.036975246175384</v>
       </c>
       <c r="E16">
-        <v>0.9887821680466435</v>
+        <v>1.051234267005338</v>
       </c>
       <c r="F16">
-        <v>0.9933432519396121</v>
+        <v>1.057608439826271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034703615530385</v>
+        <v>1.036622237446876</v>
       </c>
       <c r="J16">
-        <v>0.9957374068678174</v>
+        <v>1.041491508944742</v>
       </c>
       <c r="K16">
-        <v>1.007258025932407</v>
+        <v>1.040409286615019</v>
       </c>
       <c r="L16">
-        <v>1.003319678322079</v>
+        <v>1.05461835153782</v>
       </c>
       <c r="M16">
-        <v>1.007796710657708</v>
+        <v>1.060970671900634</v>
       </c>
       <c r="N16">
-        <v>0.9971514681982465</v>
+        <v>1.04297054634819</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9699156380098565</v>
+        <v>1.035781333233421</v>
       </c>
       <c r="D17">
-        <v>0.9955343321153496</v>
+        <v>1.037427318548499</v>
       </c>
       <c r="E17">
-        <v>0.9917608982686564</v>
+        <v>1.051773546848133</v>
       </c>
       <c r="F17">
-        <v>0.9965709972869592</v>
+        <v>1.05818567179626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035999910775365</v>
+        <v>1.036787494450683</v>
       </c>
       <c r="J17">
-        <v>0.99858110631352</v>
+        <v>1.041964403748933</v>
       </c>
       <c r="K17">
-        <v>1.009621116358542</v>
+        <v>1.040788192168552</v>
       </c>
       <c r="L17">
-        <v>1.005914947620789</v>
+        <v>1.055085322229107</v>
       </c>
       <c r="M17">
-        <v>1.010639417658744</v>
+        <v>1.061475975138158</v>
       </c>
       <c r="N17">
-        <v>0.999999206023339</v>
+        <v>1.043444112717244</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9720537482311941</v>
+        <v>1.036138143672145</v>
       </c>
       <c r="D18">
-        <v>0.9971103643180891</v>
+        <v>1.037690752676124</v>
       </c>
       <c r="E18">
-        <v>0.9934766607478845</v>
+        <v>1.052087981124473</v>
       </c>
       <c r="F18">
-        <v>0.9984296133538213</v>
+        <v>1.058522220107185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036743643811338</v>
+        <v>1.036883581185116</v>
       </c>
       <c r="J18">
-        <v>1.000215752634334</v>
+        <v>1.042239927575491</v>
       </c>
       <c r="K18">
-        <v>1.010979163754749</v>
+        <v>1.04100888304987</v>
       </c>
       <c r="L18">
-        <v>1.007408953650488</v>
+        <v>1.055357518788026</v>
       </c>
       <c r="M18">
-        <v>1.012275508885808</v>
+        <v>1.06177051008906</v>
       </c>
       <c r="N18">
-        <v>1.001636173729425</v>
+        <v>1.043720027819239</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9727776600700937</v>
+        <v>1.036259760587075</v>
       </c>
       <c r="D19">
-        <v>0.9976441086293368</v>
+        <v>1.037780534372184</v>
       </c>
       <c r="E19">
-        <v>0.9940581124176536</v>
+        <v>1.052195175212099</v>
       </c>
       <c r="F19">
-        <v>0.9990593806874492</v>
+        <v>1.058636950667628</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036995189877684</v>
+        <v>1.036916292667404</v>
       </c>
       <c r="J19">
-        <v>1.000769158185015</v>
+        <v>1.04233382214291</v>
       </c>
       <c r="K19">
-        <v>1.011438869592851</v>
+        <v>1.041084079148503</v>
       </c>
       <c r="L19">
-        <v>1.007915106016394</v>
+        <v>1.055450300539107</v>
       </c>
       <c r="M19">
-        <v>1.012829739495379</v>
+        <v>1.061870905227301</v>
       </c>
       <c r="N19">
-        <v>1.002190365179465</v>
+        <v>1.043814055727713</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9695198795737975</v>
+        <v>1.035715678617013</v>
       </c>
       <c r="D20">
-        <v>0.9952426808899926</v>
+        <v>1.037378841582969</v>
       </c>
       <c r="E20">
-        <v>0.9914435749392688</v>
+        <v>1.05171569954046</v>
       </c>
       <c r="F20">
-        <v>0.9962272074100721</v>
+        <v>1.058123754948889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035862122812809</v>
+        <v>1.036769795497866</v>
       </c>
       <c r="J20">
-        <v>0.9982785169664932</v>
+        <v>1.041913698501568</v>
       </c>
       <c r="K20">
-        <v>1.009369701026511</v>
+        <v>1.040747572162631</v>
       </c>
       <c r="L20">
-        <v>1.005638566062368</v>
+        <v>1.055035239315646</v>
       </c>
       <c r="M20">
-        <v>1.010336722827043</v>
+        <v>1.061421781613697</v>
       </c>
       <c r="N20">
-        <v>0.9996961869647321</v>
+        <v>1.043393335462612</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.958550934548912</v>
+        <v>1.033943563415774</v>
       </c>
       <c r="D21">
-        <v>0.9871682282660719</v>
+        <v>1.036069920973723</v>
       </c>
       <c r="E21">
-        <v>0.9826808894815913</v>
+        <v>1.050155467389861</v>
       </c>
       <c r="F21">
-        <v>0.9867278823861872</v>
+        <v>1.056453625779995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032028935475642</v>
+        <v>1.036289928060933</v>
       </c>
       <c r="J21">
-        <v>0.9898899946277848</v>
+        <v>1.040544200122479</v>
       </c>
       <c r="K21">
-        <v>1.002396849800073</v>
+        <v>1.039649798899671</v>
       </c>
       <c r="L21">
-        <v>0.9979979780993588</v>
+        <v>1.053683708986462</v>
       </c>
       <c r="M21">
-        <v>1.001965138528719</v>
+        <v>1.059959270543223</v>
       </c>
       <c r="N21">
-        <v>0.9912957519621257</v>
+        <v>1.042021892238741</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9513360749437025</v>
+        <v>1.032826812920176</v>
       </c>
       <c r="D22">
-        <v>0.981867527572326</v>
+        <v>1.03524463031776</v>
       </c>
       <c r="E22">
-        <v>0.9769513735290569</v>
+        <v>1.049173366886955</v>
       </c>
       <c r="F22">
-        <v>0.9805105703642033</v>
+        <v>1.055402217375336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029494465989331</v>
+        <v>1.035985446295011</v>
       </c>
       <c r="J22">
-        <v>0.9843714046539866</v>
+        <v>1.039680311234883</v>
       </c>
       <c r="K22">
-        <v>0.9978069584216761</v>
+        <v>1.038956670871046</v>
       </c>
       <c r="L22">
-        <v>0.9929936860559943</v>
+        <v>1.052832281979271</v>
       </c>
       <c r="M22">
-        <v>0.9964782623797668</v>
+        <v>1.059037877354961</v>
       </c>
       <c r="N22">
-        <v>0.9857693249575737</v>
+        <v>1.041156776529835</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9551929905505406</v>
+        <v>1.033419069130069</v>
       </c>
       <c r="D23">
-        <v>0.9847000974484629</v>
+        <v>1.035682354871282</v>
       </c>
       <c r="E23">
-        <v>0.9800108673364661</v>
+        <v>1.049694105736583</v>
       </c>
       <c r="F23">
-        <v>0.9838311545376877</v>
+        <v>1.05595971796983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030850512138367</v>
+        <v>1.036147121551279</v>
       </c>
       <c r="J23">
-        <v>0.9873215584953001</v>
+        <v>1.040138546277932</v>
       </c>
       <c r="K23">
-        <v>1.000260866313028</v>
+        <v>1.039324389681265</v>
       </c>
       <c r="L23">
-        <v>0.995666723650889</v>
+        <v>1.053283799858561</v>
       </c>
       <c r="M23">
-        <v>0.9994094535879076</v>
+        <v>1.059526503712547</v>
       </c>
       <c r="N23">
-        <v>0.9887236683557291</v>
+        <v>1.041615662319205</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9696988015451233</v>
+        <v>1.035745345960486</v>
       </c>
       <c r="D24">
-        <v>0.9953745334355818</v>
+        <v>1.037400747016002</v>
       </c>
       <c r="E24">
-        <v>0.991587026433259</v>
+        <v>1.051741838615284</v>
       </c>
       <c r="F24">
-        <v>0.9963826253597032</v>
+        <v>1.058151732943978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035924421366529</v>
+        <v>1.036777793834945</v>
       </c>
       <c r="J24">
-        <v>0.9984153180534611</v>
+        <v>1.041936610971221</v>
       </c>
       <c r="K24">
-        <v>1.009483367297275</v>
+        <v>1.040765927578561</v>
       </c>
       <c r="L24">
-        <v>1.00576351185666</v>
+        <v>1.055057870183426</v>
       </c>
       <c r="M24">
-        <v>1.01047356535327</v>
+        <v>1.061446269952486</v>
       </c>
       <c r="N24">
-        <v>0.9998331823249345</v>
+        <v>1.0434162804706</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9853240005523276</v>
+        <v>1.038434130769742</v>
       </c>
       <c r="D25">
-        <v>1.006904804649247</v>
+        <v>1.039384983281265</v>
       </c>
       <c r="E25">
-        <v>1.004178580248705</v>
+        <v>1.05411349537352</v>
       </c>
       <c r="F25">
-        <v>1.010013126047076</v>
+        <v>1.060689929607728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041331397278759</v>
+        <v>1.037497705730219</v>
       </c>
       <c r="J25">
-        <v>1.010355569987056</v>
+        <v>1.044011123442376</v>
       </c>
       <c r="K25">
-        <v>1.019396869764126</v>
+        <v>1.042426288440095</v>
       </c>
       <c r="L25">
-        <v>1.016712373619897</v>
+        <v>1.057109561341642</v>
       </c>
       <c r="M25">
-        <v>1.022457964591666</v>
+        <v>1.063666237932738</v>
       </c>
       <c r="N25">
-        <v>1.011790390785841</v>
+        <v>1.045493738987414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040570452553882</v>
+        <v>0.9969734515877915</v>
       </c>
       <c r="D2">
-        <v>1.040959909991495</v>
+        <v>1.015518134286894</v>
       </c>
       <c r="E2">
-        <v>1.056001669731556</v>
+        <v>1.0136490618506</v>
       </c>
       <c r="F2">
-        <v>1.062710247375454</v>
+        <v>1.020250376205735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038062391104093</v>
+        <v>1.045311271409232</v>
       </c>
       <c r="J2">
-        <v>1.045656343949804</v>
+        <v>1.019245064573588</v>
       </c>
       <c r="K2">
-        <v>1.043740779275838</v>
+        <v>1.026765428665094</v>
       </c>
       <c r="L2">
-        <v>1.058740578936548</v>
+        <v>1.024921462983135</v>
       </c>
       <c r="M2">
-        <v>1.065430857243638</v>
+        <v>1.031434619743758</v>
       </c>
       <c r="N2">
-        <v>1.047141295896671</v>
+        <v>1.020692509474326</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042117031338104</v>
+        <v>1.005025535240289</v>
       </c>
       <c r="D3">
-        <v>1.042099111701669</v>
+        <v>1.021477818032052</v>
       </c>
       <c r="E3">
-        <v>1.057370786840091</v>
+        <v>1.02023705513422</v>
       </c>
       <c r="F3">
-        <v>1.064174928091394</v>
+        <v>1.027364419377909</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038466944016177</v>
+        <v>1.048030508631932</v>
       </c>
       <c r="J3">
-        <v>1.04684561660383</v>
+        <v>1.025380130381564</v>
       </c>
       <c r="K3">
-        <v>1.044689647409496</v>
+        <v>1.031843068100506</v>
       </c>
       <c r="L3">
-        <v>1.059921833833354</v>
+        <v>1.030617384903554</v>
       </c>
       <c r="M3">
-        <v>1.066708774600758</v>
+        <v>1.03765874190281</v>
       </c>
       <c r="N3">
-        <v>1.048332257454279</v>
+        <v>1.026836287779451</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043115717716358</v>
+        <v>1.010065965539751</v>
       </c>
       <c r="D4">
-        <v>1.042834287243415</v>
+        <v>1.025210279556377</v>
       </c>
       <c r="E4">
-        <v>1.058255879167218</v>
+        <v>1.024378819908573</v>
       </c>
       <c r="F4">
-        <v>1.065121683539132</v>
+        <v>1.031833818598502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038726210118243</v>
+        <v>1.049717462148745</v>
       </c>
       <c r="J4">
-        <v>1.047612750836656</v>
+        <v>1.029215641296382</v>
       </c>
       <c r="K4">
-        <v>1.045301090708961</v>
+        <v>1.035013669808805</v>
       </c>
       <c r="L4">
-        <v>1.06068483399401</v>
+        <v>1.034191655026579</v>
       </c>
       <c r="M4">
-        <v>1.067534166658393</v>
+        <v>1.041562638720982</v>
       </c>
       <c r="N4">
-        <v>1.049100481105706</v>
+        <v>1.030677245559707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043535083063784</v>
+        <v>1.012146743677265</v>
       </c>
       <c r="D5">
-        <v>1.043142890572905</v>
+        <v>1.026751405610846</v>
       </c>
       <c r="E5">
-        <v>1.058627782356977</v>
+        <v>1.026092679473981</v>
       </c>
       <c r="F5">
-        <v>1.065519469189068</v>
+        <v>1.033682553785511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038834608138218</v>
+        <v>1.050410126529167</v>
       </c>
       <c r="J5">
-        <v>1.047934685234723</v>
+        <v>1.030797749060234</v>
       </c>
       <c r="K5">
-        <v>1.04555753931478</v>
+        <v>1.036320556134298</v>
       </c>
       <c r="L5">
-        <v>1.061005281612355</v>
+        <v>1.03566909771179</v>
       </c>
       <c r="M5">
-        <v>1.067880807249906</v>
+        <v>1.043175921982885</v>
       </c>
       <c r="N5">
-        <v>1.049422872687545</v>
+        <v>1.032261600098054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043605468328795</v>
+        <v>1.012493940929214</v>
       </c>
       <c r="D6">
-        <v>1.043194679359421</v>
+        <v>1.027008570713241</v>
       </c>
       <c r="E6">
-        <v>1.058690215598955</v>
+        <v>1.026378886378471</v>
       </c>
       <c r="F6">
-        <v>1.065586245842094</v>
+        <v>1.033991244306953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038852773684712</v>
+        <v>1.050525481671536</v>
       </c>
       <c r="J6">
-        <v>1.047988706278321</v>
+        <v>1.031061662229285</v>
       </c>
       <c r="K6">
-        <v>1.045600563009539</v>
+        <v>1.036538502239742</v>
       </c>
       <c r="L6">
-        <v>1.061059067716068</v>
+        <v>1.035915730959744</v>
       </c>
       <c r="M6">
-        <v>1.067938989140393</v>
+        <v>1.04344520789662</v>
       </c>
       <c r="N6">
-        <v>1.049476970447221</v>
+        <v>1.032525888054076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043121323180831</v>
+        <v>1.010093916121393</v>
       </c>
       <c r="D7">
-        <v>1.042838412634184</v>
+        <v>1.025230980109872</v>
       </c>
       <c r="E7">
-        <v>1.058260849293259</v>
+        <v>1.024401825922388</v>
       </c>
       <c r="F7">
-        <v>1.065126999667026</v>
+        <v>1.031858637832675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038727660882213</v>
+        <v>1.049726781459505</v>
       </c>
       <c r="J7">
-        <v>1.047617054766536</v>
+        <v>1.029236898448495</v>
       </c>
       <c r="K7">
-        <v>1.045304519747217</v>
+        <v>1.0350312329159</v>
       </c>
       <c r="L7">
-        <v>1.060689117071843</v>
+        <v>1.034211493765372</v>
       </c>
       <c r="M7">
-        <v>1.067538799871059</v>
+        <v>1.041584303093551</v>
       </c>
       <c r="N7">
-        <v>1.04910479114766</v>
+        <v>1.030698532899414</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041093556849484</v>
+        <v>0.9997313888231595</v>
       </c>
       <c r="D8">
-        <v>1.041345318707092</v>
+        <v>1.017558923487888</v>
       </c>
       <c r="E8">
-        <v>1.056464542384117</v>
+        <v>1.015901624437766</v>
       </c>
       <c r="F8">
-        <v>1.063205452414565</v>
+        <v>1.022683482326398</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038199632286383</v>
+        <v>1.046245810344164</v>
       </c>
       <c r="J8">
-        <v>1.046058766262127</v>
+        <v>1.021347385789637</v>
       </c>
       <c r="K8">
-        <v>1.044061982445336</v>
+        <v>1.028506186997321</v>
       </c>
       <c r="L8">
-        <v>1.059140072694251</v>
+        <v>1.026870421491316</v>
       </c>
       <c r="M8">
-        <v>1.065863051008214</v>
+        <v>1.033564713593248</v>
       </c>
       <c r="N8">
-        <v>1.047544289694837</v>
+        <v>1.022797816227641</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037504231644502</v>
+        <v>0.9800480039698127</v>
       </c>
       <c r="D9">
-        <v>1.038698994084504</v>
+        <v>1.003008248842815</v>
       </c>
       <c r="E9">
-        <v>1.05329267628124</v>
+        <v>0.9999127626335498</v>
       </c>
       <c r="F9">
-        <v>1.059811541579408</v>
+        <v>1.005397841168974</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037249860200995</v>
+        <v>1.039513601683324</v>
       </c>
       <c r="J9">
-        <v>1.043294136821569</v>
+        <v>1.006325540358318</v>
       </c>
       <c r="K9">
-        <v>1.041852792461077</v>
+        <v>1.016052707131362</v>
       </c>
       <c r="L9">
-        <v>1.056399856165995</v>
+        <v>1.013007255361686</v>
       </c>
       <c r="M9">
-        <v>1.06289835068059</v>
+        <v>1.018403945048016</v>
       </c>
       <c r="N9">
-        <v>1.044775734163366</v>
+        <v>1.007754638052779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035099913121047</v>
+        <v>0.9657720291748719</v>
       </c>
       <c r="D10">
-        <v>1.036924123377699</v>
+        <v>0.9924818180724789</v>
       </c>
       <c r="E10">
-        <v>1.051173306978277</v>
+        <v>0.9884425319514004</v>
       </c>
       <c r="F10">
-        <v>1.057543187739036</v>
+        <v>0.9929751414160056</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036603520484476</v>
+        <v>1.034555407105605</v>
       </c>
       <c r="J10">
-        <v>1.041438025448738</v>
+        <v>0.9954127024774636</v>
       </c>
       <c r="K10">
-        <v>1.040366423414233</v>
+        <v>1.006988155483838</v>
       </c>
       <c r="L10">
-        <v>1.05456555489886</v>
+        <v>1.003023643289939</v>
       </c>
       <c r="M10">
-        <v>1.060913540547063</v>
+        <v>1.007472400897209</v>
       </c>
       <c r="N10">
-        <v>1.042916986899486</v>
+        <v>0.9968263026904144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034055974077649</v>
+        <v>0.9592637552424004</v>
       </c>
       <c r="D11">
-        <v>1.036152975365341</v>
+        <v>0.9876923941618178</v>
       </c>
       <c r="E11">
-        <v>1.05025437219498</v>
+        <v>0.9832484357689653</v>
       </c>
       <c r="F11">
-        <v>1.05655950476916</v>
+        <v>0.987343481042411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036320488872043</v>
+        <v>1.032278811940154</v>
       </c>
       <c r="J11">
-        <v>1.040631121765205</v>
+        <v>0.9904352043608287</v>
       </c>
       <c r="K11">
-        <v>1.039719511908168</v>
+        <v>1.002850207170757</v>
       </c>
       <c r="L11">
-        <v>1.053769424518002</v>
+        <v>0.9984933307770164</v>
       </c>
       <c r="M11">
-        <v>1.060052027577553</v>
+        <v>1.002508094018825</v>
       </c>
       <c r="N11">
-        <v>1.042108937320169</v>
+        <v>0.9918417359555268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033667768644641</v>
+        <v>0.9567918561067906</v>
       </c>
       <c r="D12">
-        <v>1.035866136239592</v>
+        <v>0.985875054827967</v>
       </c>
       <c r="E12">
-        <v>1.049912845874483</v>
+        <v>0.9812814486768789</v>
       </c>
       <c r="F12">
-        <v>1.056193891645151</v>
+        <v>0.9852097508016964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036214879845974</v>
+        <v>1.031411876190278</v>
       </c>
       <c r="J12">
-        <v>1.040330913254938</v>
+        <v>0.9885445164667584</v>
       </c>
       <c r="K12">
-        <v>1.039478717031947</v>
+        <v>1.001277963701924</v>
       </c>
       <c r="L12">
-        <v>1.053473418864202</v>
+        <v>0.9967762732326296</v>
       </c>
       <c r="M12">
-        <v>1.059731703456609</v>
+        <v>1.000625902276912</v>
       </c>
       <c r="N12">
-        <v>1.041808302479384</v>
+        <v>0.9899483630677823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033751060121185</v>
+        <v>0.9573246453248211</v>
       </c>
       <c r="D13">
-        <v>1.035927682441935</v>
+        <v>0.9862666781518318</v>
       </c>
       <c r="E13">
-        <v>1.04998611328788</v>
+        <v>0.9817051405029361</v>
       </c>
       <c r="F13">
-        <v>1.056272327422642</v>
+        <v>0.9856694079797967</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036237555047764</v>
+        <v>1.031598833371179</v>
       </c>
       <c r="J13">
-        <v>1.0403953312451</v>
+        <v>0.9889520378516448</v>
       </c>
       <c r="K13">
-        <v>1.039530391227731</v>
+        <v>1.001616866570455</v>
       </c>
       <c r="L13">
-        <v>1.053536926200437</v>
+        <v>0.9971461955310914</v>
       </c>
       <c r="M13">
-        <v>1.059800428667322</v>
+        <v>1.001031431241796</v>
       </c>
       <c r="N13">
-        <v>1.04187281195048</v>
+        <v>0.9903564631797781</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034023893936994</v>
+        <v>0.9590605717097234</v>
       </c>
       <c r="D14">
-        <v>1.036129273364063</v>
+        <v>0.987542976874603</v>
       </c>
       <c r="E14">
-        <v>1.050226145504931</v>
+        <v>0.9830866345040817</v>
       </c>
       <c r="F14">
-        <v>1.05652928780484</v>
+        <v>0.9871679854366047</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036311768977662</v>
+        <v>1.032207596956677</v>
       </c>
       <c r="J14">
-        <v>1.040606316451987</v>
+        <v>0.9902797976104846</v>
       </c>
       <c r="K14">
-        <v>1.039699618031848</v>
+        <v>1.002720984065987</v>
       </c>
       <c r="L14">
-        <v>1.053744962501899</v>
+        <v>0.9983521177697295</v>
       </c>
       <c r="M14">
-        <v>1.06002555605582</v>
+        <v>1.00235331362547</v>
       </c>
       <c r="N14">
-        <v>1.042084096780562</v>
+        <v>0.9916861085097718</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034191937212061</v>
+        <v>0.9601227456138559</v>
       </c>
       <c r="D15">
-        <v>1.036253426908501</v>
+        <v>0.9883241511920954</v>
       </c>
       <c r="E15">
-        <v>1.050374011468188</v>
+        <v>0.9839327136857462</v>
       </c>
       <c r="F15">
-        <v>1.056687578914449</v>
+        <v>0.9880856312057829</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036357431123502</v>
+        <v>1.032579793632218</v>
       </c>
       <c r="J15">
-        <v>1.040736246407102</v>
+        <v>0.9910922042316537</v>
       </c>
       <c r="K15">
-        <v>1.039803817376685</v>
+        <v>1.003396494582656</v>
       </c>
       <c r="L15">
-        <v>1.053873102240034</v>
+        <v>0.9990904795346744</v>
       </c>
       <c r="M15">
-        <v>1.060164221853325</v>
+        <v>1.003162588744993</v>
       </c>
       <c r="N15">
-        <v>1.042214211251116</v>
+        <v>0.9924996688415271</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03516913483838</v>
+        <v>0.9661966402109586</v>
       </c>
       <c r="D16">
-        <v>1.036975246175384</v>
+        <v>0.9927945082046435</v>
       </c>
       <c r="E16">
-        <v>1.051234267005338</v>
+        <v>0.9887821680466432</v>
       </c>
       <c r="F16">
-        <v>1.057608439826271</v>
+        <v>0.9933432519396115</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036622237446876</v>
+        <v>1.034703615530385</v>
       </c>
       <c r="J16">
-        <v>1.041491508944742</v>
+        <v>0.9957374068678166</v>
       </c>
       <c r="K16">
-        <v>1.040409286615019</v>
+        <v>1.007258025932406</v>
       </c>
       <c r="L16">
-        <v>1.05461835153782</v>
+        <v>1.003319678322079</v>
       </c>
       <c r="M16">
-        <v>1.060970671900634</v>
+        <v>1.007796710657708</v>
       </c>
       <c r="N16">
-        <v>1.04297054634819</v>
+        <v>0.9971514681982461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035781333233421</v>
+        <v>0.9699156380098571</v>
       </c>
       <c r="D17">
-        <v>1.037427318548499</v>
+        <v>0.99553433211535</v>
       </c>
       <c r="E17">
-        <v>1.051773546848133</v>
+        <v>0.9917608982686567</v>
       </c>
       <c r="F17">
-        <v>1.05818567179626</v>
+        <v>0.9965709972869599</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036787494450683</v>
+        <v>1.035999910775365</v>
       </c>
       <c r="J17">
-        <v>1.041964403748933</v>
+        <v>0.9985811063135205</v>
       </c>
       <c r="K17">
-        <v>1.040788192168552</v>
+        <v>1.009621116358543</v>
       </c>
       <c r="L17">
-        <v>1.055085322229107</v>
+        <v>1.00591494762079</v>
       </c>
       <c r="M17">
-        <v>1.061475975138158</v>
+        <v>1.010639417658744</v>
       </c>
       <c r="N17">
-        <v>1.043444112717244</v>
+        <v>0.9999992060233396</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036138143672145</v>
+        <v>0.9720537482311944</v>
       </c>
       <c r="D18">
-        <v>1.037690752676124</v>
+        <v>0.9971103643180895</v>
       </c>
       <c r="E18">
-        <v>1.052087981124473</v>
+        <v>0.9934766607478843</v>
       </c>
       <c r="F18">
-        <v>1.058522220107185</v>
+        <v>0.9984296133538214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036883581185116</v>
+        <v>1.036743643811339</v>
       </c>
       <c r="J18">
-        <v>1.042239927575491</v>
+        <v>1.000215752634334</v>
       </c>
       <c r="K18">
-        <v>1.04100888304987</v>
+        <v>1.010979163754749</v>
       </c>
       <c r="L18">
-        <v>1.055357518788026</v>
+        <v>1.007408953650488</v>
       </c>
       <c r="M18">
-        <v>1.06177051008906</v>
+        <v>1.012275508885807</v>
       </c>
       <c r="N18">
-        <v>1.043720027819239</v>
+        <v>1.001636173729426</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036259760587075</v>
+        <v>0.9727776600700931</v>
       </c>
       <c r="D19">
-        <v>1.037780534372184</v>
+        <v>0.9976441086293364</v>
       </c>
       <c r="E19">
-        <v>1.052195175212099</v>
+        <v>0.9940581124176535</v>
       </c>
       <c r="F19">
-        <v>1.058636950667628</v>
+        <v>0.9990593806874488</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036916292667404</v>
+        <v>1.036995189877684</v>
       </c>
       <c r="J19">
-        <v>1.04233382214291</v>
+        <v>1.000769158185014</v>
       </c>
       <c r="K19">
-        <v>1.041084079148503</v>
+        <v>1.01143886959285</v>
       </c>
       <c r="L19">
-        <v>1.055450300539107</v>
+        <v>1.007915106016394</v>
       </c>
       <c r="M19">
-        <v>1.061870905227301</v>
+        <v>1.012829739495378</v>
       </c>
       <c r="N19">
-        <v>1.043814055727713</v>
+        <v>1.002190365179464</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035715678617013</v>
+        <v>0.9695198795737964</v>
       </c>
       <c r="D20">
-        <v>1.037378841582969</v>
+        <v>0.995242680889992</v>
       </c>
       <c r="E20">
-        <v>1.05171569954046</v>
+        <v>0.9914435749392675</v>
       </c>
       <c r="F20">
-        <v>1.058123754948889</v>
+        <v>0.9962272074100709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036769795497866</v>
+        <v>1.035862122812808</v>
       </c>
       <c r="J20">
-        <v>1.041913698501568</v>
+        <v>0.9982785169664922</v>
       </c>
       <c r="K20">
-        <v>1.040747572162631</v>
+        <v>1.00936970102651</v>
       </c>
       <c r="L20">
-        <v>1.055035239315646</v>
+        <v>1.005638566062367</v>
       </c>
       <c r="M20">
-        <v>1.061421781613697</v>
+        <v>1.010336722827042</v>
       </c>
       <c r="N20">
-        <v>1.043393335462612</v>
+        <v>0.9996961869647308</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033943563415774</v>
+        <v>0.9585509345489117</v>
       </c>
       <c r="D21">
-        <v>1.036069920973723</v>
+        <v>0.9871682282660714</v>
       </c>
       <c r="E21">
-        <v>1.050155467389861</v>
+        <v>0.9826808894815914</v>
       </c>
       <c r="F21">
-        <v>1.056453625779995</v>
+        <v>0.9867278823861869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036289928060933</v>
+        <v>1.032028935475642</v>
       </c>
       <c r="J21">
-        <v>1.040544200122479</v>
+        <v>0.9898899946277845</v>
       </c>
       <c r="K21">
-        <v>1.039649798899671</v>
+        <v>1.002396849800072</v>
       </c>
       <c r="L21">
-        <v>1.053683708986462</v>
+        <v>0.997997978099359</v>
       </c>
       <c r="M21">
-        <v>1.059959270543223</v>
+        <v>1.001965138528719</v>
       </c>
       <c r="N21">
-        <v>1.042021892238741</v>
+        <v>0.9912957519621253</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032826812920176</v>
+        <v>0.9513360749437036</v>
       </c>
       <c r="D22">
-        <v>1.03524463031776</v>
+        <v>0.9818675275723271</v>
       </c>
       <c r="E22">
-        <v>1.049173366886955</v>
+        <v>0.9769513735290587</v>
       </c>
       <c r="F22">
-        <v>1.055402217375336</v>
+        <v>0.9805105703642051</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035985446295011</v>
+        <v>1.029494465989332</v>
       </c>
       <c r="J22">
-        <v>1.039680311234883</v>
+        <v>0.9843714046539879</v>
       </c>
       <c r="K22">
-        <v>1.038956670871046</v>
+        <v>0.9978069584216771</v>
       </c>
       <c r="L22">
-        <v>1.052832281979271</v>
+        <v>0.9929936860559956</v>
       </c>
       <c r="M22">
-        <v>1.059037877354961</v>
+        <v>0.9964782623797686</v>
       </c>
       <c r="N22">
-        <v>1.041156776529835</v>
+        <v>0.9857693249575746</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033419069130069</v>
+        <v>0.955192990550541</v>
       </c>
       <c r="D23">
-        <v>1.035682354871282</v>
+        <v>0.9847000974484629</v>
       </c>
       <c r="E23">
-        <v>1.049694105736583</v>
+        <v>0.9800108673364658</v>
       </c>
       <c r="F23">
-        <v>1.05595971796983</v>
+        <v>0.9838311545376874</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036147121551279</v>
+        <v>1.030850512138367</v>
       </c>
       <c r="J23">
-        <v>1.040138546277932</v>
+        <v>0.9873215584953005</v>
       </c>
       <c r="K23">
-        <v>1.039324389681265</v>
+        <v>1.000260866313028</v>
       </c>
       <c r="L23">
-        <v>1.053283799858561</v>
+        <v>0.9956667236508884</v>
       </c>
       <c r="M23">
-        <v>1.059526503712547</v>
+        <v>0.9994094535879073</v>
       </c>
       <c r="N23">
-        <v>1.041615662319205</v>
+        <v>0.9887236683557293</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035745345960486</v>
+        <v>0.9696988015451234</v>
       </c>
       <c r="D24">
-        <v>1.037400747016002</v>
+        <v>0.995374533435582</v>
       </c>
       <c r="E24">
-        <v>1.051741838615284</v>
+        <v>0.9915870264332594</v>
       </c>
       <c r="F24">
-        <v>1.058151732943978</v>
+        <v>0.996382625359704</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036777793834945</v>
+        <v>1.035924421366529</v>
       </c>
       <c r="J24">
-        <v>1.041936610971221</v>
+        <v>0.9984153180534612</v>
       </c>
       <c r="K24">
-        <v>1.040765927578561</v>
+        <v>1.009483367297275</v>
       </c>
       <c r="L24">
-        <v>1.055057870183426</v>
+        <v>1.005763511856661</v>
       </c>
       <c r="M24">
-        <v>1.061446269952486</v>
+        <v>1.01047356535327</v>
       </c>
       <c r="N24">
-        <v>1.0434162804706</v>
+        <v>0.9998331823249349</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038434130769742</v>
+        <v>0.9853240005523288</v>
       </c>
       <c r="D25">
-        <v>1.039384983281265</v>
+        <v>1.006904804649248</v>
       </c>
       <c r="E25">
-        <v>1.05411349537352</v>
+        <v>1.004178580248706</v>
       </c>
       <c r="F25">
-        <v>1.060689929607728</v>
+        <v>1.010013126047077</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037497705730219</v>
+        <v>1.04133139727876</v>
       </c>
       <c r="J25">
-        <v>1.044011123442376</v>
+        <v>1.010355569987057</v>
       </c>
       <c r="K25">
-        <v>1.042426288440095</v>
+        <v>1.019396869764127</v>
       </c>
       <c r="L25">
-        <v>1.057109561341642</v>
+        <v>1.016712373619898</v>
       </c>
       <c r="M25">
-        <v>1.063666237932738</v>
+        <v>1.022457964591667</v>
       </c>
       <c r="N25">
-        <v>1.045493738987414</v>
+        <v>1.011790390785842</v>
       </c>
     </row>
   </sheetData>
